--- a/2023-06_ArcticHub_fieldwork_map/ArcticHub_2023_fieldwork_map_data.xlsx
+++ b/2023-06_ArcticHub_fieldwork_map/ArcticHub_2023_fieldwork_map_data.xlsx
@@ -177,9 +177,6 @@
     <t>vegetation surveys, phenocams, carbon fluxes</t>
   </si>
   <si>
-    <t>one person</t>
-  </si>
-  <si>
     <t>Davos</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>Ymer Island / Ella Island</t>
+  </si>
+  <si>
+    <t>one person :)</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1133,7 +1133,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1153,7 +1153,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1173,10 +1173,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1193,7 +1193,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1239,7 +1239,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1262,7 +1262,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1297,7 +1297,7 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -1371,7 +1371,7 @@
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
         <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1425,7 +1425,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -1445,16 +1445,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -1465,56 +1465,56 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
         <v>60</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
         <v>60</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
         <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -1523,32 +1523,32 @@
         <v>17</v>
       </c>
       <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
         <v>60</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
       <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -1563,7 +1563,7 @@
         <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/2023-06_ArcticHub_fieldwork_map/ArcticHub_2023_fieldwork_map_data.xlsx
+++ b/2023-06_ArcticHub_fieldwork_map/ArcticHub_2023_fieldwork_map_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>date_range</t>
   </si>
   <si>
-    <t>purpose</t>
-  </si>
-  <si>
     <t>method</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>Greenland</t>
-  </si>
-  <si>
-    <t>field work</t>
   </si>
   <si>
     <t>vegetation surveys</t>
@@ -1047,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1053,7 @@
     <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,489 +1075,426 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D24" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F24" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
